--- a/biology/Zoologie/Dendrobaena_veneta/Dendrobaena_veneta.xlsx
+++ b/biology/Zoologie/Dendrobaena_veneta/Dendrobaena_veneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendro
-Dendrobaena veneta est un ver de terre épigé, de couleur rouge-marron avec zébrures, vivant de la décomposition de matières organiques de surface[2]. Communément nommé ver dendro pour la pêche, c'est un vers de compost de grande taille, entre 6 et 10 cm, différent de Eisenia foetida ou Eisenia andrei qui sont plus petit, entre 4 et 8 cm.
-Il se retrouve naturellement dans les tas de fumier et de compost, partout en Europe centrale, ainsi que sur le continent Nord Américain où il a été introduit[3].
+Dendrobaena veneta est un ver de terre épigé, de couleur rouge-marron avec zébrures, vivant de la décomposition de matières organiques de surface. Communément nommé ver dendro pour la pêche, c'est un vers de compost de grande taille, entre 6 et 10 cm, différent de Eisenia foetida ou Eisenia andrei qui sont plus petit, entre 4 et 8 cm.
+Il se retrouve naturellement dans les tas de fumier et de compost, partout en Europe centrale, ainsi que sur le continent Nord Américain où il a été introduit.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ver dendro est utilisé pour le lombricompostage et en particulier en lombriculture, pour servir d'appâts de pêche ou de nourriture animale. 
-En 2017, sur une étude comparative de traitement de boues d'épuration par lombricompostage, Dendrobaena veneta a montré une résistance beaucoup plus faible dans toutes les conditions expérimentales que Eisenia fetida et Eisenia andrei , un problème lié à son poids corporel et au nombre total de cellules immunitaires en circulation diminuant dans les conditions les plus contaminées[4]. Dendrobaena veneta semble être une espèce de ver de terre moins performante pour le lombricompostage qu'Eisenia fetida ou Eisenia andrei[5].
+En 2017, sur une étude comparative de traitement de boues d'épuration par lombricompostage, Dendrobaena veneta a montré une résistance beaucoup plus faible dans toutes les conditions expérimentales que Eisenia fetida et Eisenia andrei , un problème lié à son poids corporel et au nombre total de cellules immunitaires en circulation diminuant dans les conditions les plus contaminées. Dendrobaena veneta semble être une espèce de ver de terre moins performante pour le lombricompostage qu'Eisenia fetida ou Eisenia andrei.
 </t>
         </is>
       </c>
